--- a/biology/Botanique/Euphorbia_abyssinica/Euphorbia_abyssinica.xlsx
+++ b/biology/Botanique/Euphorbia_abyssinica/Euphorbia_abyssinica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Euphorbe d'Abyssinie (Euphorbia abyssinica) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante succulente originaire de Djibouti, d'Éthiopie, d'Érythrée, de Somalie et du Soudan. Elle peut atteindre neuf mètres de haut[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Euphorbe d'Abyssinie (Euphorbia abyssinica) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante succulente originaire de Djibouti, d'Éthiopie, d'Érythrée, de Somalie et du Soudan. Elle peut atteindre neuf mètres de haut.
 Elle est commercialisée comme plante d'intérieur.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Euphorbia officinarum var. kolquall Willd. (1799)
 Euphorbia obovalifolia A.Rich. (1851)
